--- a/public/uploads/excel/LIST KAK AYU KOKU.xlsx
+++ b/public/uploads/excel/LIST KAK AYU KOKU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive(hafizjamil265@gmail.com)\Project prim.my\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APDM SMTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB51BC96-2B63-4DBA-9B74-B051E042E32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD96492-1DD2-46D2-89D9-845A2B96C154}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{11096705-C16A-4A4D-BF9D-0032818E2482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11096705-C16A-4A4D-BF9D-0032818E2482}"/>
   </bookViews>
   <sheets>
     <sheet name="5 AWAM 1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="233">
   <si>
     <t>Bil</t>
   </si>
@@ -732,26 +728,14 @@
     <t>syasyie239@gmail.com</t>
   </si>
   <si>
-    <t>Jantina</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>BINTI</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column14</t>
+    <t>KELAS 5 AWAM 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +751,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -776,7 +769,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -799,108 +792,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,405 +805,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1317,30 +825,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFCE145A-C660-4D9D-B229-74C79ACBF807}" name="Table1" displayName="Table1" ref="A1:M30" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
-  <autoFilter ref="A1:M30" xr:uid="{DFCE145A-C660-4D9D-B229-74C79ACBF807}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D68AA35B-0646-41D3-9998-D3E03CC50AAF}" name="Bil" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{343D1407-00D8-4307-97DB-3F384216FD67}" name="Nama" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{608E5DA4-F196-42D4-9FAB-CAC701D50B3F}" name="No. KP" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9AABEFF8-A5EA-4D23-B3E3-0189FF226BC2}" name="Kelas" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{18FF49CF-8A9B-46DA-9F79-20D63ADCC85B}" name="email" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{2E76A1D1-78E5-4DE9-9480-181E09FCCBDC}" name="Nama Penjaga 1" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{0024A493-3F71-4A96-B3FA-078430EA8E2C}" name="No. Tel Bimbit Penjaga 1" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{B5BB1505-3EDC-452C-921D-E1C34B30F421}" name="No. Tel Rumah Penjaga 1" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{0424D710-A033-46FE-AFCE-97820E9A9E7A}" name="Nama Penjaga 2" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{752AB41B-C136-4C6C-B35A-CE4B43F63C30}" name="No. Tel Bimbit Penjaga 2" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{5B74C7FD-78AE-419E-B4ED-F7AD0D1FA833}" name="No. Tel Rumah Penjaga 2" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{264F72B8-EA7A-4465-87B4-33104224D9BF}" name="Jantina" dataDxfId="0">
-      <calculatedColumnFormula array="1">L2L=IF(ISNUMBER(SEARCH(Table1[[#This Row],[Column1]],Table1[[#This Row],[Column1]])),"L","P")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{4B2F1A7A-B491-4D8B-97A1-ED2F1C251771}" name="Column1" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1640,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082FB5C-E072-4AAF-B83E-F40B6FD9E595}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,1144 +1138,1019 @@
     <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="33.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
+    <col min="10" max="12" width="13.5703125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="6.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>74</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="4" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K31" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C33" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F33" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G33" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J33" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="M30" s="13"/>
+      <c r="K33" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{68ECBE7D-BE42-4A5B-A426-4DA42592F886}"/>
-    <hyperlink ref="E27" r:id="rId2" xr:uid="{278A0A00-255F-41C0-9D88-5F53D5A3FE88}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{CA008F7D-B454-46FF-ACA3-AEC8A545F3A9}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{11572E72-CEF4-43E6-858A-DAB98D7768C4}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{26576984-4875-4A24-8AE1-3CE0C7DECF5D}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{5152849C-7314-4F72-A9FA-49BB354F43AD}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{2F3A292C-BC0E-407E-9369-0ED9D00A5950}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{6DC98745-CD78-4838-A168-E17109A6B88D}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{8CEADA11-12A0-496B-B7EF-ABF7F0FDDB0D}"/>
-    <hyperlink ref="E30" r:id="rId10" xr:uid="{A247827F-F47E-4D73-8132-51FA7D790057}"/>
-    <hyperlink ref="E29" r:id="rId11" xr:uid="{E27CDB83-C74D-4881-9343-11EA7FFC53EB}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{E8BEB64A-C579-4180-A184-F4F0472B1320}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{E39F5099-3EB5-42C6-80CC-2203F2D0A21D}"/>
-    <hyperlink ref="E25" r:id="rId14" xr:uid="{97AD12AC-B1FF-4982-B0FE-96D91A72625E}"/>
-    <hyperlink ref="E20" r:id="rId15" xr:uid="{37C6EDDA-4919-43DB-9336-FC84ABAA4461}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{7FA58BF9-F28C-4C0D-B091-5785B6D79910}"/>
-    <hyperlink ref="E8" r:id="rId17" xr:uid="{4C5F1C1F-F43F-46E2-8412-66437F080779}"/>
-    <hyperlink ref="E26" r:id="rId18" xr:uid="{2636D271-80C0-4D16-B1CA-29D83F7AAA24}"/>
-    <hyperlink ref="E9" r:id="rId19" xr:uid="{8C393EBD-1EAF-4DD1-9E34-62CF9B14B657}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{A050929F-AF80-465D-B589-ACE884FF580D}"/>
-    <hyperlink ref="E3" r:id="rId21" xr:uid="{2F09D1BE-0CB7-4E8A-BFF1-1423512026C4}"/>
-    <hyperlink ref="E7" r:id="rId22" xr:uid="{C0802B07-24F3-434E-AE64-A768E759D0B6}"/>
-    <hyperlink ref="E5" r:id="rId23" xr:uid="{CE80924D-6C3D-4625-BBBE-6B5657A63ACE}"/>
-    <hyperlink ref="E16" r:id="rId24" xr:uid="{94768539-69BE-402D-86CC-006756D958FC}"/>
-    <hyperlink ref="E21" r:id="rId25" xr:uid="{845B0C90-6D1E-4C90-8AC2-A74A4EB9699C}"/>
-    <hyperlink ref="E24" r:id="rId26" xr:uid="{348289C7-E61D-4B71-8B47-35CD7CC63F18}"/>
-    <hyperlink ref="E2" r:id="rId27" xr:uid="{5B9018EB-A0C4-4752-A1F9-FC20BCEFB253}"/>
-    <hyperlink ref="E12" r:id="rId28" xr:uid="{05FB3F5D-32A6-4892-AA36-100A97DDDD11}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{68ECBE7D-BE42-4A5B-A426-4DA42592F886}"/>
+    <hyperlink ref="E30" r:id="rId2" xr:uid="{278A0A00-255F-41C0-9D88-5F53D5A3FE88}"/>
+    <hyperlink ref="E21" r:id="rId3" xr:uid="{CA008F7D-B454-46FF-ACA3-AEC8A545F3A9}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{11572E72-CEF4-43E6-858A-DAB98D7768C4}"/>
+    <hyperlink ref="E31" r:id="rId5" xr:uid="{26576984-4875-4A24-8AE1-3CE0C7DECF5D}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{5152849C-7314-4F72-A9FA-49BB354F43AD}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{2F3A292C-BC0E-407E-9369-0ED9D00A5950}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{6DC98745-CD78-4838-A168-E17109A6B88D}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{8CEADA11-12A0-496B-B7EF-ABF7F0FDDB0D}"/>
+    <hyperlink ref="E33" r:id="rId10" xr:uid="{A247827F-F47E-4D73-8132-51FA7D790057}"/>
+    <hyperlink ref="E32" r:id="rId11" xr:uid="{E27CDB83-C74D-4881-9343-11EA7FFC53EB}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{E8BEB64A-C579-4180-A184-F4F0472B1320}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{E39F5099-3EB5-42C6-80CC-2203F2D0A21D}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{97AD12AC-B1FF-4982-B0FE-96D91A72625E}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{37C6EDDA-4919-43DB-9336-FC84ABAA4461}"/>
+    <hyperlink ref="E26" r:id="rId16" xr:uid="{7FA58BF9-F28C-4C0D-B091-5785B6D79910}"/>
+    <hyperlink ref="E11" r:id="rId17" xr:uid="{4C5F1C1F-F43F-46E2-8412-66437F080779}"/>
+    <hyperlink ref="E29" r:id="rId18" xr:uid="{2636D271-80C0-4D16-B1CA-29D83F7AAA24}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{8C393EBD-1EAF-4DD1-9E34-62CF9B14B657}"/>
+    <hyperlink ref="E25" r:id="rId20" xr:uid="{A050929F-AF80-465D-B589-ACE884FF580D}"/>
+    <hyperlink ref="E6" r:id="rId21" xr:uid="{2F09D1BE-0CB7-4E8A-BFF1-1423512026C4}"/>
+    <hyperlink ref="E10" r:id="rId22" xr:uid="{C0802B07-24F3-434E-AE64-A768E759D0B6}"/>
+    <hyperlink ref="E8" r:id="rId23" xr:uid="{CE80924D-6C3D-4625-BBBE-6B5657A63ACE}"/>
+    <hyperlink ref="E19" r:id="rId24" xr:uid="{94768539-69BE-402D-86CC-006756D958FC}"/>
+    <hyperlink ref="E24" r:id="rId25" xr:uid="{845B0C90-6D1E-4C90-8AC2-A74A4EB9699C}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{348289C7-E61D-4B71-8B47-35CD7CC63F18}"/>
+    <hyperlink ref="E5" r:id="rId27" xr:uid="{5B9018EB-A0C4-4752-A1F9-FC20BCEFB253}"/>
+    <hyperlink ref="E15" r:id="rId28" xr:uid="{05FB3F5D-32A6-4892-AA36-100A97DDDD11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
-  <tableParts count="1">
-    <tablePart r:id="rId30"/>
-  </tableParts>
 </worksheet>
 </file>